--- a/medicine/Médecine vétérinaire/Pulpe_de_betterave/Pulpe_de_betterave.xlsx
+++ b/medicine/Médecine vétérinaire/Pulpe_de_betterave/Pulpe_de_betterave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe de betterave est un sous-produit de l'industrie sucrière dans les régions tempérées. En effet la principale source de sucre alimentaire dans ces régions est la betterave sucrière. Lors de l'extraction du sucre, les racines tubérisées sont râpées grossièrement  et le jus sucré est récupéré par osmose. Le résidu riche en cellulose digestible prend le nom de pulpe de betterave et peut être utilisé en alimentation animale pour les ruminants (seuls capables grâce aux bactéries de leur panse de digérer la cellulose).
 Il peut être utilisé sous forme de pulpes fraîches riches en eau (15 à 20 % de matière sèche) et doit être en général ensilé ou sous forme de pulpes déshydratées conditionnées en « bouchons » qui peuvent ainsi être incorporées à des aliments composés.
@@ -513,7 +525,9 @@
           <t>Origine et processus de fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe de betterave est un sous-produit de la fabrication industrielle de sucre ou de bioéthanol à partir de betterave.
 </t>
@@ -546,9 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pulpe humide ou surpressée
-Pulpe déshydratée
-Les ateliers spécialisés dans la déshydratation de la luzerne peuvent élargir leur champ d'activité et leur période de fonctionnement en déshydratant également de la pulpe de betterave[1].
+          <t>Pulpe déshydratée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ateliers spécialisés dans la déshydratation de la luzerne peuvent élargir leur champ d'activité et leur période de fonctionnement en déshydratant également de la pulpe de betterave.
 </t>
         </is>
       </c>
@@ -579,9 +597,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Composition chimique
-La composition de la pulpe de betterave est très variable d'une pulpe à l'autre, et seule sa teneur maximale en cendres insolubles dans l'acide chlorhydrique est réglementée, et ne doit pas excéder 4,5 % de la matière sèche.
-Valeur alimentaire</t>
+          <t>Composition chimique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La composition de la pulpe de betterave est très variable d'une pulpe à l'autre, et seule sa teneur maximale en cendres insolubles dans l'acide chlorhydrique est réglementée, et ne doit pas excéder 4,5 % de la matière sèche.
+</t>
         </is>
       </c>
     </row>
@@ -611,8 +634,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un sous-produit qui reste propriété du planteur
-La pulpe de betterave a la particularité de rester la propriété du planteur après avoir été obtenue. Cela complique l'accès à ce sous-produit pour les éleveurs qui ne produisent pas de betterave[1].
+          <t>Un sous-produit qui reste propriété du planteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe de betterave a la particularité de rester la propriété du planteur après avoir été obtenue. Cela complique l'accès à ce sous-produit pour les éleveurs qui ne produisent pas de betterave.
 </t>
         </is>
       </c>
@@ -643,8 +671,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation des bovins
-La pulpe permet un apport énergétique important pour un encombrement relativement faible. Elle est principalement utilisée pour l'alimentation des bovins en substitution des fourrages. Elle est ainsi largement utilisée à l’engraissement en substitution de l’ensilage de maïs[1].
+          <t>Alimentation des bovins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe permet un apport énergétique important pour un encombrement relativement faible. Elle est principalement utilisée pour l'alimentation des bovins en substitution des fourrages. Elle est ainsi largement utilisée à l’engraissement en substitution de l’ensilage de maïs.
 Elle est aussi utilisée massivement dans l'alimentation animale, notamment dans la nourriture sèche.[réf. nécessaire]
 </t>
         </is>
